--- a/Dotychczas okre�lone koszty.xlsx
+++ b/Dotychczas okre�lone koszty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Koszt</t>
   </si>
@@ -31,6 +31,12 @@
   </si>
   <si>
     <t>uzyskanie numeru NIP, zgłoszenie do podatku VAT [opłata rejestracyjna VAT]</t>
+  </si>
+  <si>
+    <t>wpis do ewidencji (?)</t>
+  </si>
+  <si>
+    <t>SUMA</t>
   </si>
 </sst>
 </file>
@@ -38,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.00\ [$zł-415]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ [$zł-415]"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,7 +70,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -72,18 +78,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -378,35 +412,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" ht="15" thickBot="1">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>1000</v>
       </c>
+      <c r="D2" s="6">
+        <f>SUM(B$2:B$1048576)</f>
+        <v>1770</v>
+      </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -414,12 +456,20 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="30" customHeight="1">
+    <row r="4" spans="1:4" ht="30" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Dotychczas okre�lone koszty.xlsx
+++ b/Dotychczas okre�lone koszty.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Koszt</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>SUMA</t>
+  </si>
+  <si>
+    <t>opłata skarbowa w związku z wnioskiem o koncesję na alkohol</t>
   </si>
 </sst>
 </file>
@@ -412,15 +415,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -445,7 +448,7 @@
       </c>
       <c r="D2" s="6">
         <f>SUM(B$2:B$1048576)</f>
-        <v>1770</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -470,6 +473,14 @@
       </c>
       <c r="B5" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
